--- a/nuno-dataset/test-oxigen-01/content/results/metrics_9_9.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_9_9.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_11</t>
+          <t>model_9_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7901225072707406</v>
+        <v>0.8646455558456058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7387020346997868</v>
+        <v>0.720630002910706</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7776684823855149</v>
+        <v>0.9173521372528198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2202048385419374</v>
+        <v>0.77937908154035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2322725504636765</v>
+        <v>0.1497974842786789</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1833582520484924</v>
+        <v>0.4882208108901978</v>
       </c>
       <c r="H2" t="n">
-        <v>1.144407272338867</v>
+        <v>0.06918749213218689</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6356166005134583</v>
+        <v>0.2910287380218506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_10</t>
+          <t>model_9_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7907600590595465</v>
+        <v>0.8857074489717135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7364140659092752</v>
+        <v>0.7646591974836079</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6959921866579371</v>
+        <v>0.8979800534274553</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2495185330231424</v>
+        <v>0.80447418646743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2315669506788254</v>
+        <v>0.1264881789684296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1849637776613235</v>
+        <v>0.4112763702869415</v>
       </c>
       <c r="H3" t="n">
-        <v>1.091826796531677</v>
+        <v>0.08540455996990204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6117228269577026</v>
+        <v>0.2579249143600464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_9</t>
+          <t>model_9_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7916102607262652</v>
+        <v>0.8919394307161677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7389009762508568</v>
+        <v>0.7795265588445059</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6445666450993346</v>
+        <v>0.8917597362457232</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2697653602464803</v>
+        <v>0.8130438631361983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2306260615587234</v>
+        <v>0.1195912137627602</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1832186579704285</v>
+        <v>0.3852944672107697</v>
       </c>
       <c r="H4" t="n">
-        <v>1.058720588684082</v>
+        <v>0.09061180800199509</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5952194929122925</v>
+        <v>0.2466203719377518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_8</t>
+          <t>model_9_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7931268470034986</v>
+        <v>0.8969746712608054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7498651926395139</v>
+        <v>0.7952635575382443</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6351605864106793</v>
+        <v>0.8854769394373576</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2782582696853262</v>
+        <v>0.8222049469462034</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2289476245641708</v>
+        <v>0.1140186786651611</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1755248457193375</v>
+        <v>0.3577928841114044</v>
       </c>
       <c r="H5" t="n">
-        <v>1.052665233612061</v>
+        <v>0.09587135910987854</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5882968902587891</v>
+        <v>0.2345356643199921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_12</t>
+          <t>model_9_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7969245180778572</v>
+        <v>0.8987659824925222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7052027272893397</v>
+        <v>0.8031665686506395</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.736506922746587</v>
+        <v>0.8740577835733394</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2202354025271064</v>
+        <v>0.8243376366784858</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2247447222471237</v>
+        <v>0.1120362281799316</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2068654298782349</v>
+        <v>0.3439817428588867</v>
       </c>
       <c r="H6" t="n">
-        <v>1.117908954620361</v>
+        <v>0.1054307445883751</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6355917453765869</v>
+        <v>0.231722354888916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_18</t>
+          <t>model_9_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8040996666808848</v>
+        <v>0.8989471083866949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6718174542006439</v>
+        <v>0.803892751809102</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7738619844648522</v>
+        <v>0.8729443814362516</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1911357526551243</v>
+        <v>0.8245144623766132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2168039232492447</v>
+        <v>0.1118357703089714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2302925884723663</v>
+        <v>0.3427126407623291</v>
       </c>
       <c r="H7" t="n">
-        <v>1.141956925392151</v>
+        <v>0.1063628196716309</v>
       </c>
       <c r="I7" t="n">
-        <v>0.659311056137085</v>
+        <v>0.2314890772104263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_15</t>
+          <t>model_9_9_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8048843872018594</v>
+        <v>0.8990196268191726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6835321146244011</v>
+        <v>0.829776796351589</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7007147579222324</v>
+        <v>0.7801461844586023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.223661392476095</v>
+        <v>0.8149550693578167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2159354835748672</v>
+        <v>0.1117555126547813</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2220721542835236</v>
+        <v>0.2974782884120941</v>
       </c>
       <c r="H8" t="n">
-        <v>1.094866991043091</v>
+        <v>0.184047520160675</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6327992081642151</v>
+        <v>0.2440992593765259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_16</t>
+          <t>model_9_9_23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8051931089819133</v>
+        <v>0.8991230802972208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.686218984522086</v>
+        <v>0.830143511317147</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7546463225786235</v>
+        <v>0.78028461367</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2048413017738002</v>
+        <v>0.8152539514860435</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2155938148498535</v>
+        <v>0.1116410121321678</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2201867252588272</v>
+        <v>0.2968374490737915</v>
       </c>
       <c r="H9" t="n">
-        <v>1.129586458206177</v>
+        <v>0.1839316189289093</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6481395363807678</v>
+        <v>0.2437049895524979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_17</t>
+          <t>model_9_9_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8055127798083357</v>
+        <v>0.8994768419613142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6855002259895251</v>
+        <v>0.8081882224671972</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7535133722857428</v>
+        <v>0.8611011669596105</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2049348260374912</v>
+        <v>0.8239901669905814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2152400463819504</v>
+        <v>0.1112495139241219</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2206910848617554</v>
+        <v>0.3352060317993164</v>
       </c>
       <c r="H10" t="n">
-        <v>1.128857135772705</v>
+        <v>0.1162771880626678</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6480633616447449</v>
+        <v>0.2321807146072388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_0</t>
+          <t>model_9_9_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8056515801358178</v>
+        <v>0.8996951940246097</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9441294044427547</v>
+        <v>0.8331916980914635</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5523021080462012</v>
+        <v>0.7851861392733043</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8081406207687389</v>
+        <v>0.8188553492211987</v>
       </c>
       <c r="F11" t="n">
-        <v>0.215086430311203</v>
+        <v>0.1110078617930412</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03920556977391243</v>
+        <v>0.2915104627609253</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2882139086723328</v>
+        <v>0.1798283755779266</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1563859730958939</v>
+        <v>0.2389542311429977</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_14</t>
+          <t>model_9_9_22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8061551173207379</v>
+        <v>0.8997961786972535</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7068103252554814</v>
+        <v>0.8316249156187329</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.675427663721778</v>
+        <v>0.7830705127358693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2436693121771584</v>
+        <v>0.8171247241438626</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2145291715860367</v>
+        <v>0.110896110534668</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2057373523712158</v>
+        <v>0.2942485511302948</v>
       </c>
       <c r="H12" t="n">
-        <v>1.078587889671326</v>
+        <v>0.1815994530916214</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6164906620979309</v>
+        <v>0.2412371933460236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_19</t>
+          <t>model_9_9_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8068080523987003</v>
+        <v>0.899923072424718</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6697044124332121</v>
+        <v>0.8319363840086487</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7597967969454926</v>
+        <v>0.7835457260396883</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1954003301749447</v>
+        <v>0.8174852174858398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2138065844774246</v>
+        <v>0.1107556745409966</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2317753434181213</v>
+        <v>0.2937042713165283</v>
       </c>
       <c r="H13" t="n">
-        <v>1.132902145385742</v>
+        <v>0.1812016367912292</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6558349132537842</v>
+        <v>0.2407616376876831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_13</t>
+          <t>model_9_9_19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8073729111578609</v>
+        <v>0.8999907072070108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7080226733260748</v>
+        <v>0.8336958472307177</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6474478227643328</v>
+        <v>0.7803984592160149</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2546211993615398</v>
+        <v>0.8177792790848952</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2131814211606979</v>
+        <v>0.1106808185577393</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2048866152763367</v>
+        <v>0.2906294465065002</v>
       </c>
       <c r="H14" t="n">
-        <v>1.060575485229492</v>
+        <v>0.1838363111019135</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6075636148452759</v>
+        <v>0.2403737306594849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_6</t>
+          <t>model_9_9_20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8075401408317087</v>
+        <v>0.9000231825522409</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8938052247194532</v>
+        <v>0.8318927567821817</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2727979033427648</v>
+        <v>0.7846748962207077</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4785404977633674</v>
+        <v>0.8177917213771336</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2129963487386703</v>
+        <v>0.1106448844075203</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07451909780502319</v>
+        <v>0.293780505657196</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8193874955177307</v>
+        <v>0.1802563667297363</v>
       </c>
       <c r="I15" t="n">
-        <v>0.425045371055603</v>
+        <v>0.2403573095798492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_4</t>
+          <t>model_9_9_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8106416545665744</v>
+        <v>0.9002077617252924</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8986285596811252</v>
+        <v>0.8151694989275524</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1813737525306227</v>
+        <v>0.8410642299276151</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5147183271497426</v>
+        <v>0.8229028392854474</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2095638811588287</v>
+        <v>0.1104406043887138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07113446295261383</v>
+        <v>0.3230056762695312</v>
       </c>
       <c r="H16" t="n">
-        <v>0.760531485080719</v>
+        <v>0.1330508291721344</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3955565989017487</v>
+        <v>0.2336150407791138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_21</t>
+          <t>model_9_9_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8107515190738509</v>
+        <v>0.9004763783741755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6937739223813328</v>
+        <v>0.8334162320485992</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.8025826887349778</v>
+        <v>0.7856212211623039</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1904682683288546</v>
+        <v>0.8191427976007517</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2094422876834869</v>
+        <v>0.110143318772316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2148852646350861</v>
+        <v>0.2911181151866913</v>
       </c>
       <c r="H17" t="n">
-        <v>1.160446286201477</v>
+        <v>0.1794641613960266</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6598551869392395</v>
+        <v>0.2385750710964203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_20</t>
+          <t>model_9_9_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8126746851992744</v>
+        <v>0.9006999716111493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7011960892652883</v>
+        <v>0.8342540352995357</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7726217870230188</v>
+        <v>0.7858136035732618</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2049865231771583</v>
+        <v>0.8197878278855568</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2073139101266861</v>
+        <v>0.1098958700895309</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2096769660711288</v>
+        <v>0.2896539568901062</v>
       </c>
       <c r="H18" t="n">
-        <v>1.141158580780029</v>
+        <v>0.1793031096458435</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6480212211608887</v>
+        <v>0.2377241849899292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_22</t>
+          <t>model_9_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8127417589708744</v>
+        <v>0.9007754824130275</v>
       </c>
       <c r="C19" t="n">
-        <v>0.712001222984991</v>
+        <v>0.8122664266210528</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.809111594313402</v>
+        <v>0.858666376512736</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1963491289220677</v>
+        <v>0.8261232459451122</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2072397023439407</v>
+        <v>0.1098123043775558</v>
       </c>
       <c r="G19" t="n">
-        <v>0.202094778418541</v>
+        <v>0.3280790448188782</v>
       </c>
       <c r="H19" t="n">
-        <v>1.164649486541748</v>
+        <v>0.1183154433965683</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6550616025924683</v>
+        <v>0.2293668836355209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_5</t>
+          <t>model_9_9_12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8129999969454074</v>
+        <v>0.9011186914692234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8987916007956821</v>
+        <v>0.8372003543634345</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2011691145783385</v>
+        <v>0.7873045064720794</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5074353193361534</v>
+        <v>0.8222993758471486</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2069538980722427</v>
+        <v>0.1094324737787247</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07102005183696747</v>
+        <v>0.2845050394535065</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7732751369476318</v>
+        <v>0.1780550181865692</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4014930129051208</v>
+        <v>0.2344111055135727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_23</t>
+          <t>model_9_9_16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.814625488253588</v>
+        <v>0.9013244183730664</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7036291048666232</v>
+        <v>0.8331146452529903</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7842022224490763</v>
+        <v>0.794917894747006</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2017912370144305</v>
+        <v>0.8217075967247243</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2051549702882767</v>
+        <v>0.1092047840356827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2079696655273438</v>
+        <v>0.2916451692581177</v>
       </c>
       <c r="H21" t="n">
-        <v>1.148613691329956</v>
+        <v>0.1716815829277039</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6506257057189941</v>
+        <v>0.235191747546196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_24</t>
+          <t>model_9_9_15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8149267174108874</v>
+        <v>0.9016707838538351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7056148816138759</v>
+        <v>0.8329530315799208</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7861837175013331</v>
+        <v>0.798728392654051</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2019599508562029</v>
+        <v>0.8227323312273622</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2048216015100479</v>
+        <v>0.1088214591145515</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2065762281417847</v>
+        <v>0.2919275760650635</v>
       </c>
       <c r="H22" t="n">
-        <v>1.149889230728149</v>
+        <v>0.1684916764497757</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6504882574081421</v>
+        <v>0.2338399887084961</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_7</t>
+          <t>model_9_9_14</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8154366834319922</v>
+        <v>0.9021213783529796</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9019283417173027</v>
+        <v>0.8365147159007713</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.443831012730429</v>
+        <v>0.7953596983559322</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4186750492483732</v>
+        <v>0.824224136661093</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2042572200298309</v>
+        <v>0.1083227917551994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06881894171237946</v>
+        <v>0.2857032418251038</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9294933080673218</v>
+        <v>0.1713117361068726</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4738421738147736</v>
+        <v>0.2318720817565918</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_1</t>
+          <t>model_9_9_13</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8395670507369949</v>
+        <v>0.9022412148782856</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9361911118842032</v>
+        <v>0.8373732141770258</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5084209719565861</v>
+        <v>0.7947864261107062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.788213354979993</v>
+        <v>0.8246549822070399</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1775520145893097</v>
+        <v>0.1081901788711548</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04477603733539581</v>
+        <v>0.2842029631137848</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3164632320404053</v>
+        <v>0.1717916429042816</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1726288050413132</v>
+        <v>0.2313037663698196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_2</t>
+          <t>model_9_9_9</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.849097578561019</v>
+        <v>0.9031982513990655</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9374850235534063</v>
+        <v>0.8281783980683043</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5215225978385536</v>
+        <v>0.8323671560835744</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7936725382146328</v>
+        <v>0.8294294066926789</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1670045107603073</v>
+        <v>0.1071310043334961</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04386807233095169</v>
+        <v>0.3002716302871704</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3080287873744965</v>
+        <v>0.1403314620256424</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1681790053844452</v>
+        <v>0.2250056117773056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_3</t>
+          <t>model_9_9_10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8550682078826202</v>
+        <v>0.9032851717216011</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9296369075753093</v>
+        <v>0.8314561376012791</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5037837838530557</v>
+        <v>0.8243070313448009</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7835026567161187</v>
+        <v>0.8293211814650086</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1603967994451523</v>
+        <v>0.1070348098874092</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0493752583861351</v>
+        <v>0.2945435047149658</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3194484710693359</v>
+        <v>0.1470788866281509</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1764685362577438</v>
+        <v>0.2251483947038651</v>
       </c>
     </row>
   </sheetData>
